--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H2">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I2">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J2">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.173625666666667</v>
+        <v>2.238740666666666</v>
       </c>
       <c r="N2">
-        <v>6.520877</v>
+        <v>6.716221999999999</v>
       </c>
       <c r="O2">
-        <v>0.03242430220886856</v>
+        <v>0.03262524687146927</v>
       </c>
       <c r="P2">
-        <v>0.03242430220886856</v>
+        <v>0.03262524687146927</v>
       </c>
       <c r="Q2">
-        <v>4.029667234428</v>
+        <v>0.6570032234466664</v>
       </c>
       <c r="R2">
-        <v>36.267005109852</v>
+        <v>5.913029011019999</v>
       </c>
       <c r="S2">
-        <v>0.01851829226812338</v>
+        <v>0.004897708936196269</v>
       </c>
       <c r="T2">
-        <v>0.01851829226812338</v>
+        <v>0.004897708936196269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H3">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I3">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J3">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>178.585842</v>
       </c>
       <c r="O3">
-        <v>0.8879973217150474</v>
+        <v>0.8675125960695174</v>
       </c>
       <c r="P3">
-        <v>0.8879973217150473</v>
+        <v>0.8675125960695174</v>
       </c>
       <c r="Q3">
-        <v>110.359621265688</v>
+        <v>17.46986235058</v>
       </c>
       <c r="R3">
-        <v>993.2365913911922</v>
+        <v>157.22876115522</v>
       </c>
       <c r="S3">
-        <v>0.5071564479908002</v>
+        <v>0.1302311737523767</v>
       </c>
       <c r="T3">
-        <v>0.5071564479908</v>
+        <v>0.1302311737523767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H4">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I4">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J4">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.334689999999999</v>
+        <v>6.852529666666666</v>
       </c>
       <c r="N4">
-        <v>16.00407</v>
+        <v>20.557589</v>
       </c>
       <c r="O4">
-        <v>0.0795783760760841</v>
+        <v>0.0998621570590134</v>
       </c>
       <c r="P4">
-        <v>0.0795783760760841</v>
+        <v>0.0998621570590134</v>
       </c>
       <c r="Q4">
-        <v>9.889939113479999</v>
+        <v>2.011011881276666</v>
       </c>
       <c r="R4">
-        <v>89.00945202132</v>
+        <v>18.09910693149</v>
       </c>
       <c r="S4">
-        <v>0.04544910841586268</v>
+        <v>0.01499132806389517</v>
       </c>
       <c r="T4">
-        <v>0.04544910841586267</v>
+        <v>0.01499132806389517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.278734</v>
       </c>
       <c r="I5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.173625666666667</v>
+        <v>2.238740666666666</v>
       </c>
       <c r="N5">
-        <v>6.520877</v>
+        <v>6.716221999999999</v>
       </c>
       <c r="O5">
-        <v>0.03242430220886856</v>
+        <v>0.03262524687146927</v>
       </c>
       <c r="P5">
-        <v>0.03242430220886856</v>
+        <v>0.03262524687146927</v>
       </c>
       <c r="Q5">
-        <v>0.9264963477464444</v>
+        <v>0.9542512692164442</v>
       </c>
       <c r="R5">
-        <v>8.338467129718</v>
+        <v>8.588261422947999</v>
       </c>
       <c r="S5">
-        <v>0.004257703962831795</v>
+        <v>0.007113579967081247</v>
       </c>
       <c r="T5">
-        <v>0.004257703962831794</v>
+        <v>0.007113579967081247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.278734</v>
       </c>
       <c r="I6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>178.585842</v>
       </c>
       <c r="O6">
-        <v>0.8879973217150474</v>
+        <v>0.8675125960695174</v>
       </c>
       <c r="P6">
-        <v>0.8879973217150473</v>
+        <v>0.8675125960695174</v>
       </c>
       <c r="Q6">
         <v>25.37375423155867</v>
@@ -818,10 +818,10 @@
         <v>228.363788084028</v>
       </c>
       <c r="S6">
-        <v>0.1166048136146492</v>
+        <v>0.1891516790325777</v>
       </c>
       <c r="T6">
-        <v>0.1166048136146492</v>
+        <v>0.1891516790325777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.278734</v>
       </c>
       <c r="I7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.334689999999999</v>
+        <v>6.852529666666666</v>
       </c>
       <c r="N7">
-        <v>16.00407</v>
+        <v>20.557589</v>
       </c>
       <c r="O7">
-        <v>0.0795783760760841</v>
+        <v>0.0998621570590134</v>
       </c>
       <c r="P7">
-        <v>0.0795783760760841</v>
+        <v>0.0998621570590134</v>
       </c>
       <c r="Q7">
-        <v>2.27388316082</v>
+        <v>2.920854223591778</v>
       </c>
       <c r="R7">
-        <v>20.46494844738</v>
+        <v>26.287688012326</v>
       </c>
       <c r="S7">
-        <v>0.01044960551478543</v>
+        <v>0.0217738563856123</v>
       </c>
       <c r="T7">
-        <v>0.01044960551478542</v>
+        <v>0.0217738563856123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H8">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.173625666666667</v>
+        <v>2.238740666666666</v>
       </c>
       <c r="N8">
-        <v>6.520877</v>
+        <v>6.716221999999999</v>
       </c>
       <c r="O8">
-        <v>0.03242430220886856</v>
+        <v>0.03262524687146927</v>
       </c>
       <c r="P8">
-        <v>0.03242430220886856</v>
+        <v>0.03262524687146927</v>
       </c>
       <c r="Q8">
-        <v>2.099516624103555</v>
+        <v>2.765259636603555</v>
       </c>
       <c r="R8">
-        <v>18.895649616932</v>
+        <v>24.887336729432</v>
       </c>
       <c r="S8">
-        <v>0.009648305977913387</v>
+        <v>0.02061395796819175</v>
       </c>
       <c r="T8">
-        <v>0.009648305977913387</v>
+        <v>0.02061395796819175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H9">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>178.585842</v>
       </c>
       <c r="O9">
-        <v>0.8879973217150474</v>
+        <v>0.8675125960695174</v>
       </c>
       <c r="P9">
-        <v>0.8879973217150473</v>
+        <v>0.8675125960695174</v>
       </c>
       <c r="Q9">
-        <v>57.49900574854134</v>
+        <v>73.52887092646134</v>
       </c>
       <c r="R9">
-        <v>517.491051736872</v>
+        <v>661.759838338152</v>
       </c>
       <c r="S9">
-        <v>0.2642360601095981</v>
+        <v>0.5481297432845631</v>
       </c>
       <c r="T9">
-        <v>0.2642360601095981</v>
+        <v>0.548129743284563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H10">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.334689999999999</v>
+        <v>6.852529666666666</v>
       </c>
       <c r="N10">
-        <v>16.00407</v>
+        <v>20.557589</v>
       </c>
       <c r="O10">
-        <v>0.0795783760760841</v>
+        <v>0.0998621570590134</v>
       </c>
       <c r="P10">
-        <v>0.0795783760760841</v>
+        <v>0.0998621570590134</v>
       </c>
       <c r="Q10">
-        <v>5.152805522679999</v>
+        <v>8.464144140498222</v>
       </c>
       <c r="R10">
-        <v>46.37524970411999</v>
+        <v>76.177297264484</v>
       </c>
       <c r="S10">
-        <v>0.023679662145436</v>
+        <v>0.06309697260950595</v>
       </c>
       <c r="T10">
-        <v>0.023679662145436</v>
+        <v>0.06309697260950593</v>
       </c>
     </row>
   </sheetData>
